--- a/parameters/ModelG_Tocilizumab_Params.xlsx
+++ b/parameters/ModelG_Tocilizumab_Params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdoshi\Desktop\PK-PD Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2818A98F-7D88-4178-BD97-8C5A7DF83757}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B091F73-0FDE-9049-A278-D952223D8A22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -45,17 +45,20 @@
     <definedName name="keDM3">#REF!</definedName>
     <definedName name="keDMtot">#REF!</definedName>
     <definedName name="keDS1">#REF!</definedName>
-    <definedName name="keDT">#REF!</definedName>
+    <definedName name="keDT">Sheet2!$F$22</definedName>
     <definedName name="keL">#REF!</definedName>
     <definedName name="keM">#REF!</definedName>
     <definedName name="keM3_">#REF!</definedName>
     <definedName name="keT">#REF!</definedName>
+    <definedName name="keTL">Sheet2!$F$31</definedName>
     <definedName name="keTs">#REF!</definedName>
     <definedName name="Km">#REF!</definedName>
     <definedName name="koff">#REF!</definedName>
-    <definedName name="koff_DT">#REF!</definedName>
-    <definedName name="koff_TL">#REF!</definedName>
+    <definedName name="koff_DT">Sheet2!$F$27</definedName>
+    <definedName name="koff_TL">Sheet2!$F$35</definedName>
     <definedName name="kon">#REF!</definedName>
+    <definedName name="kon_DT">Sheet2!$F$28</definedName>
+    <definedName name="kon_TL">Sheet2!$F$36</definedName>
     <definedName name="kshed">#REF!</definedName>
     <definedName name="kshedDM1">#REF!</definedName>
     <definedName name="kshedDM3">#REF!</definedName>
@@ -111,6 +114,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -121,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="111">
   <si>
     <t>Parameter</t>
   </si>
@@ -445,6 +449,15 @@
   </si>
   <si>
     <t>Soluble Ligand (IL6)</t>
+  </si>
+  <si>
+    <t>Equilibration Constant</t>
+  </si>
+  <si>
+    <t>Kss_DT</t>
+  </si>
+  <si>
+    <t>Kss_TL</t>
   </si>
 </sst>
 </file>
@@ -539,7 +552,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -578,6 +591,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -604,7 +620,98 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
@@ -945,24 +1052,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
     <col min="10" max="10" width="20.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="35.25" customWidth="1"/>
+    <col min="13" max="13" width="35.1640625" customWidth="1"/>
     <col min="14" max="14" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -997,7 +1104,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1019,7 +1126,7 @@
       <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="16" t="s">
         <v>81</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -1030,7 +1137,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1052,7 +1159,7 @@
       <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="16" t="s">
         <v>81</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -1063,7 +1170,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1085,7 +1192,7 @@
       <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -1098,7 +1205,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1120,7 +1227,7 @@
       <c r="G5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -1133,7 +1240,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1155,7 +1262,7 @@
       <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -1168,7 +1275,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1190,7 +1297,7 @@
       <c r="G7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -1203,7 +1310,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1225,7 +1332,7 @@
       <c r="G8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -1236,7 +1343,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1255,8 +1362,10 @@
       <c r="F9" s="6">
         <v>5.4447439353099737E-2</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -1267,7 +1376,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1286,8 +1395,10 @@
       <c r="F10" s="6">
         <v>5.8550724637681163E-2</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -1298,7 +1409,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1320,7 +1431,7 @@
       <c r="G11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="10" t="s">
@@ -1333,7 +1444,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1355,7 +1466,7 @@
       <c r="G12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -1368,7 +1479,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1390,7 +1501,7 @@
       <c r="G13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -1401,7 +1512,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1423,7 +1534,7 @@
       <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="6" t="s">
@@ -1434,7 +1545,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1456,7 +1567,7 @@
       <c r="G15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="6" t="s">
@@ -1469,7 +1580,7 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1491,7 +1602,7 @@
       <c r="G16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -1504,7 +1615,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1526,7 +1637,7 @@
       <c r="G17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="6" t="s">
@@ -1539,7 +1650,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1561,7 +1672,7 @@
       <c r="G18" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="10" t="s">
@@ -1574,7 +1685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1596,7 +1707,7 @@
       <c r="G19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="6" t="s">
@@ -1607,7 +1718,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1629,7 +1740,7 @@
       <c r="G20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I20" s="6" t="s">
@@ -1642,7 +1753,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1664,7 +1775,7 @@
       <c r="G21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="6" t="s">
@@ -1677,7 +1788,7 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1699,7 +1810,7 @@
       <c r="G22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="6" t="s">
@@ -1710,7 +1821,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1732,7 +1843,7 @@
       <c r="G23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="6" t="s">
@@ -1743,7 +1854,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1765,7 +1876,7 @@
       <c r="G24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="6" t="s">
@@ -1778,7 +1889,7 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1800,7 +1911,7 @@
       <c r="G25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="6" t="s">
@@ -1811,9 +1922,9 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>34</v>
@@ -1822,33 +1933,30 @@
         <v>85</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F26" s="6">
-        <v>5</v>
+        <f>(koff_DT+keDT)/kon_DT</f>
+        <v>3.5538019999999997</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>34</v>
@@ -1857,101 +1965,101 @@
         <v>85</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F27" s="6">
-        <v>1.4285714285714286</v>
+        <v>5</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E29" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I29" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J29" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N29" s="13">
         <v>0.08</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
         <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="6">
-        <v>40</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>61</v>
@@ -1963,96 +2071,96 @@
         <v>48</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="6">
-        <v>1.26</v>
+        <v>40</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>18</v>
+      <c r="H30" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1.26</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="10">
         <v>1.2E-4</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H32" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="14" t="s">
+      <c r="I32" s="10"/>
+      <c r="J32" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N32" s="13">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
         <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>34</v>
@@ -2061,33 +2169,33 @@
         <v>101</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>86</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>33</v>
+        <v>31.5</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>34</v>
@@ -2096,29 +2204,131 @@
         <v>101</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="F34" s="6">
-        <v>5</v>
+        <f>(koff_TL+keTL)/kon_TL</f>
+        <v>1.252</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="I34" s="6"/>
       <c r="J34" s="7"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
     </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="6">
+        <v>5</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>33</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="6">
+        <v>5</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:H36">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H36">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H36">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H36">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/parameters/ModelG_Tocilizumab_Params.xlsx
+++ b/parameters/ModelG_Tocilizumab_Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B091F73-0FDE-9049-A278-D952223D8A22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0479A7B1-FBA8-3D49-BDC0-BA171CF1EB46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="1280" windowWidth="28800" windowHeight="18420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,11 +19,13 @@
     <definedName name="ABCdrug">#REF!</definedName>
     <definedName name="ABCsol">#REF!</definedName>
     <definedName name="Cavg">#REF!</definedName>
-    <definedName name="CL">#REF!</definedName>
+    <definedName name="CL">Sheet2!$F$4</definedName>
     <definedName name="CL_">#REF!</definedName>
     <definedName name="Dose">#REF!</definedName>
     <definedName name="eps">#REF!</definedName>
-    <definedName name="Imax">#REF!</definedName>
+    <definedName name="F">Sheet2!$F$2</definedName>
+    <definedName name="Imax">Sheet2!$F$21</definedName>
+    <definedName name="k12_">Sheet2!$F$9</definedName>
     <definedName name="k12D">#REF!</definedName>
     <definedName name="k13D">#REF!</definedName>
     <definedName name="k13d_prop">#REF!</definedName>
@@ -31,56 +33,65 @@
     <definedName name="k13DS">#REF!</definedName>
     <definedName name="k13M">#REF!</definedName>
     <definedName name="k13S">#REF!</definedName>
+    <definedName name="k21_">Sheet2!$F$10</definedName>
     <definedName name="k21D">#REF!</definedName>
     <definedName name="k31D">#REF!</definedName>
     <definedName name="k31D_prop">#REF!</definedName>
     <definedName name="k31D_thurber">#REF!</definedName>
     <definedName name="k31M">#REF!</definedName>
+    <definedName name="ka">Sheet2!$F$3</definedName>
     <definedName name="Kd">#REF!</definedName>
-    <definedName name="Kd_DT">#REF!</definedName>
-    <definedName name="Kd_TL">#REF!</definedName>
-    <definedName name="kd_ugml">#REF!</definedName>
-    <definedName name="keD">#REF!</definedName>
+    <definedName name="Kd_DT">Sheet2!$F$27</definedName>
+    <definedName name="Kd_TL">Sheet2!$F$34</definedName>
+    <definedName name="Kd_ugml">Sheet2!$F$26</definedName>
+    <definedName name="keD">Sheet2!$F$8</definedName>
     <definedName name="keD3_">#REF!</definedName>
     <definedName name="keDM3">#REF!</definedName>
     <definedName name="keDMtot">#REF!</definedName>
     <definedName name="keDS1">#REF!</definedName>
     <definedName name="keDT">Sheet2!$F$22</definedName>
-    <definedName name="keL">#REF!</definedName>
+    <definedName name="keL">Sheet2!$F$32</definedName>
     <definedName name="keM">#REF!</definedName>
     <definedName name="keM3_">#REF!</definedName>
-    <definedName name="keT">#REF!</definedName>
-    <definedName name="keTL">Sheet2!$F$31</definedName>
+    <definedName name="keT">Sheet2!$F$20</definedName>
+    <definedName name="keTL">Sheet2!$F$33</definedName>
     <definedName name="keTs">#REF!</definedName>
-    <definedName name="Km">#REF!</definedName>
+    <definedName name="Km">Sheet2!$F$14</definedName>
+    <definedName name="Km_ugml">Sheet2!$F$12</definedName>
     <definedName name="koff">#REF!</definedName>
-    <definedName name="koff_DT">Sheet2!$F$27</definedName>
-    <definedName name="koff_TL">Sheet2!$F$35</definedName>
+    <definedName name="koff_DT">Sheet2!$F$29</definedName>
+    <definedName name="koff_TL">Sheet2!$F$36</definedName>
     <definedName name="kon">#REF!</definedName>
-    <definedName name="kon_DT">Sheet2!$F$28</definedName>
-    <definedName name="kon_TL">Sheet2!$F$36</definedName>
+    <definedName name="kon_DT">Sheet2!$F$30</definedName>
+    <definedName name="kon_TL">Sheet2!$F$37</definedName>
     <definedName name="kshed">#REF!</definedName>
     <definedName name="kshedDM1">#REF!</definedName>
     <definedName name="kshedDM3">#REF!</definedName>
     <definedName name="kshedM1">#REF!</definedName>
     <definedName name="kshedM3">#REF!</definedName>
-    <definedName name="ksyn_ngml">#REF!</definedName>
-    <definedName name="ksynL">#REF!</definedName>
+    <definedName name="Kss_DT">Sheet2!$F$28</definedName>
+    <definedName name="Kss_TL">Sheet2!$F$35</definedName>
+    <definedName name="ksyn_ngml">Sheet2!$F$18</definedName>
+    <definedName name="ksynL">Sheet2!$F$31</definedName>
+    <definedName name="ksynT">Sheet2!$F$19</definedName>
     <definedName name="ksynTs">#REF!</definedName>
     <definedName name="ksynTs_ngml">#REF!</definedName>
-    <definedName name="L0">#REF!</definedName>
+    <definedName name="L0">Sheet2!$F$25</definedName>
     <definedName name="M10_">#REF!</definedName>
     <definedName name="M30_">#REF!</definedName>
     <definedName name="Mfrac">#REF!</definedName>
-    <definedName name="MWD">#REF!</definedName>
+    <definedName name="MWD">Sheet2!$F$15</definedName>
+    <definedName name="MWL">Sheet2!$F$17</definedName>
     <definedName name="MWLm">#REF!</definedName>
     <definedName name="MWLs">#REF!</definedName>
     <definedName name="MWS">#REF!</definedName>
+    <definedName name="MWT">Sheet2!$F$16</definedName>
     <definedName name="MWTm">#REF!</definedName>
     <definedName name="MWTs">#REF!</definedName>
     <definedName name="Npercell">#REF!</definedName>
     <definedName name="P">#REF!</definedName>
-    <definedName name="Q">#REF!</definedName>
+    <definedName name="Parameter">Sheet2!$F$1</definedName>
+    <definedName name="Q">Sheet2!$F$6</definedName>
     <definedName name="Q_">#REF!</definedName>
     <definedName name="Rcap">#REF!</definedName>
     <definedName name="Rho">#REF!</definedName>
@@ -88,10 +99,12 @@
     <definedName name="Rkrogh">#REF!</definedName>
     <definedName name="S10_">#REF!</definedName>
     <definedName name="S1acc">#REF!</definedName>
+    <definedName name="T0">Sheet2!$F$23</definedName>
     <definedName name="Tau">#REF!</definedName>
     <definedName name="Tfrac">#REF!</definedName>
-    <definedName name="V1_">#REF!</definedName>
-    <definedName name="V2_">#REF!</definedName>
+    <definedName name="TL0">Sheet2!$F$24</definedName>
+    <definedName name="V1_">Sheet2!$F$5</definedName>
+    <definedName name="V2_">Sheet2!$F$7</definedName>
     <definedName name="Vc">#REF!</definedName>
     <definedName name="VcDS">#REF!</definedName>
     <definedName name="VcS">#REF!</definedName>
@@ -99,7 +112,8 @@
     <definedName name="VD2_">#REF!</definedName>
     <definedName name="VD3_">#REF!</definedName>
     <definedName name="VDS1_">#REF!</definedName>
-    <definedName name="Vm">#REF!</definedName>
+    <definedName name="Vm">Sheet2!$F$13</definedName>
+    <definedName name="Vm_ugml">Sheet2!$F$11</definedName>
     <definedName name="Vp">#REF!</definedName>
     <definedName name="VS1_">#REF!</definedName>
     <definedName name="Vtum">#REF!</definedName>
@@ -125,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="98">
   <si>
     <t>Parameter</t>
   </si>
@@ -253,15 +267,9 @@
     <t>Imax</t>
   </si>
   <si>
-    <t>ug/(ml*d)</t>
-  </si>
-  <si>
     <t>ug/ml</t>
   </si>
   <si>
-    <t>ng/(ml*d)</t>
-  </si>
-  <si>
     <t>k12</t>
   </si>
   <si>
@@ -385,48 +393,6 @@
     <t>Soluble Target (IL6-R)</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>=CL_/V1_</t>
-  </si>
-  <si>
-    <t>=Q_/V1_</t>
-  </si>
-  <si>
-    <t>=Q_/V2_</t>
-  </si>
-  <si>
-    <t>=Vm*1000/MWD</t>
-  </si>
-  <si>
-    <t>=Km*1000/MWD</t>
-  </si>
-  <si>
-    <t>=ksyn_ngml/MWTs</t>
-  </si>
-  <si>
-    <t>=(1-Imax)*keTs</t>
-  </si>
-  <si>
-    <t>=ksynTs/keTs</t>
-  </si>
-  <si>
-    <t>=kd_ugml/MWTs*1000</t>
-  </si>
-  <si>
-    <t>=koff_DT/Kd_DT</t>
-  </si>
-  <si>
-    <t>=L0*keL</t>
-  </si>
-  <si>
-    <t>=keT</t>
-  </si>
-  <si>
-    <t>=koff_TL/Kd_TL</t>
-  </si>
-  <si>
     <t>Drug (Tocili)</t>
   </si>
   <si>
@@ -439,9 +405,6 @@
     <t>ug/ml/d</t>
   </si>
   <si>
-    <t>Changed units from _ on 7/22/19</t>
-  </si>
-  <si>
     <t>DOI: 10.1111/j.1349-7006.1992.tb00117.x</t>
   </si>
   <si>
@@ -458,12 +421,27 @@
   </si>
   <si>
     <t>Kss_TL</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>TL0</t>
+  </si>
+  <si>
+    <t>guess that it's similar to L0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -552,7 +530,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -580,20 +558,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1052,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1051,7 @@
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="35.1640625" customWidth="1"/>
     <col min="14" max="14" width="9" style="5"/>
@@ -1094,15 +1082,13 @@
       <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
@@ -1112,13 +1098,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -1126,11 +1112,12 @@
       <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>86</v>
+      <c r="H2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="7" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</f>
+        <v/>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
@@ -1145,13 +1132,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -1159,11 +1146,12 @@
       <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>86</v>
+      <c r="H3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="7" t="str">
+        <f t="shared" ref="I3:I37" ca="1" si="0">_xlfn.IFNA(_xlfn.FORMULATEXT(F3),"")</f>
+        <v/>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
@@ -1178,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>20</v>
@@ -1192,14 +1180,15 @@
       <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>86</v>
+      <c r="I4" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J4" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -1213,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>22</v>
@@ -1227,14 +1216,15 @@
       <c r="G5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>86</v>
+      <c r="I5" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J5" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -1248,7 +1238,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>21</v>
@@ -1262,14 +1252,15 @@
       <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>86</v>
+      <c r="I6" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J6" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -1283,7 +1274,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -1297,14 +1288,15 @@
       <c r="G7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>86</v>
+      <c r="I7" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J7" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -1318,25 +1310,27 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="16">
+        <f>CL/V1_</f>
         <v>7.7897574123989219E-2</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>87</v>
+      <c r="I8" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=CL/V1_</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
@@ -1351,25 +1345,27 @@
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="6">
+        <v>43</v>
+      </c>
+      <c r="F9" s="16">
+        <f>Q/V1_</f>
         <v>5.4447439353099737E-2</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>88</v>
+      <c r="I9" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=Q/V1_</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="8"/>
@@ -1384,65 +1380,69 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="6">
+        <v>44</v>
+      </c>
+      <c r="F10" s="16">
+        <f>Q/V2_</f>
         <v>5.8550724637681163E-2</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>89</v>
+      <c r="I10" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=Q/V2_</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+    <row r="11" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="10">
+        <v>84</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="6">
         <v>1.41</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
@@ -1452,28 +1452,29 @@
         <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="6">
+        <v>82</v>
+      </c>
+      <c r="F12" s="15">
         <v>0.36699999999999999</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>86</v>
+      <c r="I12" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J12" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -1487,25 +1488,27 @@
         <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="6">
-        <v>9.5270270270270299</v>
+      <c r="F13" s="15">
+        <f>Vm_ugml*1000/MWD</f>
+        <v>9.5270270270270263</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>90</v>
+      <c r="I13" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=Vm_ugml*1000/MWD</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
@@ -1520,25 +1523,27 @@
         <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="15">
+        <f>Km_ugml*1000/MWD</f>
         <v>2.4797297297297298</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>91</v>
+      <c r="I14" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=Km_ugml*1000/MWD</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
@@ -1553,7 +1558,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>28</v>
@@ -1567,14 +1572,15 @@
       <c r="G15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>86</v>
+      <c r="I15" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -1588,13 +1594,13 @@
         <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" s="6">
         <v>52</v>
@@ -1602,14 +1608,15 @@
       <c r="G16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>86</v>
+      <c r="I16" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -1623,13 +1630,13 @@
         <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F17" s="6">
         <v>21</v>
@@ -1637,81 +1644,86 @@
       <c r="G17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>86</v>
+      <c r="I17" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+    <row r="18" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="10">
+      <c r="E18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="6">
         <v>47.8</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="16" t="s">
+      <c r="G18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="I18" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="6">
+        <v>64</v>
+      </c>
+      <c r="F19" s="15">
+        <f>ksyn_ngml/MWT</f>
         <v>0.91923076923076918</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>92</v>
+      <c r="I19" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=ksyn_ngml/MWT</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="8"/>
@@ -1723,13 +1735,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>40</v>
@@ -1740,14 +1752,15 @@
       <c r="G20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>86</v>
+      <c r="I20" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J20" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -1758,31 +1771,32 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="15">
         <v>0.93899999999999995</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>86</v>
+      <c r="I21" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J21" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -1793,28 +1807,30 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="6">
+        <v>65</v>
+      </c>
+      <c r="F22" s="15">
+        <f>(1-Imax)*keT</f>
         <v>7.6860000000000067E-2</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>93</v>
+      <c r="I22" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=(1-Imax)*keT</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="8"/>
@@ -1826,28 +1842,30 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0.72954822954822951</v>
+        <v>66</v>
+      </c>
+      <c r="F23" s="15">
+        <f>(ksynT-keTL*TL0)/keT</f>
+        <v>0.72637362637362635</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>94</v>
+      <c r="I23" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=(ksynT-keTL*TL0)/keT</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="8"/>
@@ -1859,31 +1877,32 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="F24" s="6">
-        <v>0.182</v>
+        <v>1E-4</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>86</v>
+        <v>15</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J24" s="7" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -1893,413 +1912,472 @@
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F25" s="6">
-        <v>3.5</v>
+        <v>1.2E-4</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" s="7"/>
+      <c r="H25" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="F26" s="6">
-        <f>(koff_DT+keDT)/kon_DT</f>
-        <v>3.5538019999999997</v>
+        <v>0.182</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F27" s="6">
-        <v>5</v>
+        <f>Kd_ugml*1000/MWT</f>
+        <v>3.5</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=Kd_ugml*1000/MWT</v>
+      </c>
+      <c r="J27" s="7"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1.4285714285714286</v>
+        <v>92</v>
+      </c>
+      <c r="F28" s="15">
+        <f>(koff_DT+keDT)/kon_DT</f>
+        <v>3.5538019999999997</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>96</v>
+      <c r="I28" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=(koff_DT+keDT)/kon_DT</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
-        <v>27</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N29" s="13">
-        <v>0.08</v>
-      </c>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="6">
+        <v>5</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="6">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="F30" s="15">
+        <f>koff_DT/Kd_DT</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>76</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=koff_DT/Kd_DT</v>
+      </c>
+      <c r="J30" s="7"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1.26</v>
-      </c>
-      <c r="G31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="19">
+        <f>L0*(kon_TL*T0+keL)-koff_TL*TL0</f>
+        <v>5.5824175824175748E-5</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=L0*(kon_TL*T0+keL)-koff_TL*TL0</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H32" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <v>30</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1.2E-4</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N32" s="13">
-        <v>2E-3</v>
-      </c>
+      <c r="I32" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F33" s="6">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>77</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J33" s="7"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>31.5</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F34" s="6">
-        <f>(koff_TL+keTL)/kon_TL</f>
-        <v>1.252</v>
+        <v>1</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="7"/>
+      <c r="H34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F35" s="6">
-        <v>5</v>
+        <f>(koff_TL+keTL)/kon_TL</f>
+        <v>9</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=(koff_TL+keTL)/kon_TL</v>
+      </c>
+      <c r="J35" s="7"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F36" s="6">
         <v>5</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J36" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="6">
+        <f>koff_TL/Kd_TL</f>
+        <v>5</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=koff_TL/Kd_TL</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H36">
+  <conditionalFormatting sqref="H2:H37">
     <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H36">
+  <conditionalFormatting sqref="H2:H37">
     <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
     </cfRule>
@@ -2307,7 +2385,7 @@
       <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H36">
+  <conditionalFormatting sqref="H2:H37">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H2)))</formula>
     </cfRule>
@@ -2324,7 +2402,7 @@
       <formula>NOT(ISERROR(SEARCH("check",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H36">
+  <conditionalFormatting sqref="H2:H37">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H2)))</formula>
     </cfRule>

--- a/parameters/ModelG_Tocilizumab_Params.xlsx
+++ b/parameters/ModelG_Tocilizumab_Params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0479A7B1-FBA8-3D49-BDC0-BA171CF1EB46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B835E0-C4A0-C447-AD2D-9E483E23A3B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="1280" windowWidth="28800" windowHeight="18420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="98">
   <si>
     <t>Parameter</t>
   </si>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2188,9 +2188,7 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="J32" s="7"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
